--- a/pred_ohlcv/54/2019-10-22 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-22 LRC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>36.31666666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>36.31666666666666</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>36.31833333333332</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>36.31999999999999</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>36.30999999999999</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
         <v>36.30666666666665</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>36.30333333333332</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>36.30333333333332</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,551 +781,8 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>300</v>
-      </c>
-      <c r="G15" t="n">
-        <v>36.30833333333332</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>300.3786</v>
-      </c>
-      <c r="G16" t="n">
-        <v>36.31333333333333</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9687.5047</v>
-      </c>
-      <c r="G17" t="n">
-        <v>36.31999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>19966.3297</v>
-      </c>
-      <c r="G18" t="n">
-        <v>36.33499999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>36.355</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>778.5069999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>36.365</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>37</v>
-      </c>
-      <c r="C22" t="n">
-        <v>37</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37</v>
-      </c>
-      <c r="E22" t="n">
-        <v>37</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>36.39333333333334</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>573.5555000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>36.40166666666667</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" t="n">
-        <v>36.41333333333334</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C25" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1296.0625</v>
-      </c>
-      <c r="G25" t="n">
-        <v>36.42500000000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E26" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1139.6188</v>
-      </c>
-      <c r="G26" t="n">
-        <v>36.43833333333335</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2377.8202</v>
-      </c>
-      <c r="G27" t="n">
-        <v>36.45166666666669</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2630.84</v>
-      </c>
-      <c r="G28" t="n">
-        <v>36.45500000000003</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="n">
-        <v>36.46166666666669</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C30" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E30" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G30" t="n">
-        <v>36.47000000000003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C31" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D31" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E31" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>58.8446</v>
-      </c>
-      <c r="G31" t="n">
-        <v>36.48000000000003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D32" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E32" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>11513</v>
-      </c>
-      <c r="G32" t="n">
-        <v>36.48833333333336</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C33" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D33" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E33" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>657.5962</v>
-      </c>
-      <c r="G33" t="n">
-        <v>36.50333333333335</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D34" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E34" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5617.0731</v>
-      </c>
-      <c r="G34" t="n">
-        <v>36.52166666666668</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2433.4693</v>
-      </c>
-      <c r="G35" t="n">
-        <v>36.54000000000003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
